--- a/src/main/resources/inputDataX.xlsx
+++ b/src/main/resources/inputDataX.xlsx
@@ -41,7 +41,7 @@
     <t>AB-123-CD</t>
   </si>
   <si>
-    <t>2020</t>
+    <t>2020-10-31</t>
   </si>
   <si>
     <t>Red</t>
@@ -59,7 +59,7 @@
     <t>EF-489-EZ</t>
   </si>
   <si>
-    <t>2016</t>
+    <t>2016-10-31</t>
   </si>
   <si>
     <t>Blue</t>
